--- a/bots/crawl_ch/output/bread_coop_2023-03-11.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-11.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10547,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11557,7 +11557,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11837,7 +11837,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12340,7 +12340,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13744,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13807,13 +13807,13 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 40% Aktion 4.50 Schweizer Franken statt 7.50 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück - Online kein Bestand 40% Aktion 4.50 Schweizer Franken statt 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14166,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18002,7 +18002,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18071,7 +18071,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18144,7 +18144,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18430,7 +18430,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18497,7 +18497,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18566,7 +18566,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18635,7 +18635,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18777,7 +18777,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18846,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18919,7 +18919,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -18992,7 +18992,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19061,7 +19061,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19128,7 +19128,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19270,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19343,7 +19343,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19416,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19485,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19627,7 +19627,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19769,7 +19769,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19838,7 +19838,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19905,7 +19905,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -19972,7 +19972,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20041,7 +20041,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20110,7 +20110,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20179,7 +20179,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20252,7 +20252,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20394,7 +20394,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20463,7 +20463,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20532,7 +20532,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20601,7 +20601,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20670,7 +20670,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20743,7 +20743,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21238,7 +21238,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21449,7 +21449,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21664,7 +21664,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21737,7 +21737,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22009,7 +22009,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22076,7 +22076,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22145,7 +22145,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22214,7 +22214,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22427,7 +22427,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22500,7 +22500,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22569,7 +22569,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22638,7 +22638,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22705,7 +22705,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22774,7 +22774,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22910,7 +22910,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -22979,7 +22979,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23121,7 +23121,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23194,7 +23194,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23267,7 +23267,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23336,7 +23336,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23405,7 +23405,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23472,7 +23472,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23541,7 +23541,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23752,7 +23752,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23825,7 +23825,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23896,7 +23896,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24032,7 +24032,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24174,7 +24174,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24387,7 +24387,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24456,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24598,7 +24598,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24872,7 +24872,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -24941,7 +24941,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25014,7 +25014,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25359,7 +25359,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25428,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25704,7 +25704,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25915,7 +25915,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -25984,7 +25984,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26126,7 +26126,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26199,7 +26199,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26268,7 +26268,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26341,7 +26341,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26408,7 +26408,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26481,7 +26481,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26550,7 +26550,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26617,7 +26617,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26684,7 +26684,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26757,7 +26757,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26826,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26895,7 +26895,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -26962,7 +26962,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27031,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27100,7 +27100,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27173,7 +27173,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27242,7 +27242,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27311,7 +27311,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27378,7 +27378,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27447,7 +27447,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27514,7 +27514,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27581,7 +27581,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27715,7 +27715,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27782,7 +27782,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27924,7 +27924,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
@@ -27991,7 +27991,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-11 06:49:42</t>
+          <t>2023-03-11 12:54:44</t>
         </is>
       </c>
     </row>
